--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.74</v>
+        <v>3.63</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.359999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.63</v>
+        <v>5.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,190 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-novi-pazar/0vXj7uaN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45205.6875</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>06/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-radnik-surdulica/zHHScJyG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-napredak/pSOF0Lic/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.93</v>
+        <v>11.81</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.07</v>
+        <v>17.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:05</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.62</v>
+        <v>18.16</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.55</v>
+        <v>46.82</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>11.81</v>
+        <v>2.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>17.5</v>
+        <v>3.07</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 19:05</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>18.16</v>
+        <v>2.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>46.82</v>
+        <v>2.55</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,282 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-napredak/pSOF0Lic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-vojvodina/Esye6aET/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-zeleznicar-pancevo/hhSNbaM9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-mladost-lucani/6yQB11xi/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>3</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,98 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-mladost-lucani/6yQB11xi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-crvena-zvezda/vkOJau73/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.58</v>
+        <v>1.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>3.88</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.65</v>
+        <v>4.58</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.88</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>11.81</v>
+        <v>2.93</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>17.5</v>
+        <v>3.07</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 19:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>18.16</v>
+        <v>2.62</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>46.82</v>
+        <v>2.55</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.93</v>
+        <v>11.81</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.07</v>
+        <v>17.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:05</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.62</v>
+        <v>18.16</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.55</v>
+        <v>46.82</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-crvena-zvezda/vkOJau73/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.63</v>
+        <v>5.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.74</v>
+        <v>3.63</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.359999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,282 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-cukaricki/AoY2aWCK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-radnicki-1923/2VX8wkj1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45219.83333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-partizan/EJvf1hr8/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.65</v>
+        <v>4.58</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.88</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>4.58</v>
+        <v>1.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.91</v>
+        <v>3.88</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.74</v>
+        <v>3.63</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.359999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.63</v>
+        <v>5.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,190 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-partizan/EJvf1hr8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-javor/K6r4vVze/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45220.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-tsc-backa-topola/hAwb0CcE/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.58</v>
+        <v>1.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>3.88</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.65</v>
+        <v>4.58</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.88</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.93</v>
+        <v>11.81</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.07</v>
+        <v>17.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:05</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.62</v>
+        <v>18.16</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.55</v>
+        <v>46.82</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>11.81</v>
+        <v>2.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>17.5</v>
+        <v>3.07</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 19:05</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>18.16</v>
+        <v>2.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>46.82</v>
+        <v>2.55</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>3</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,282 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-tsc-backa-topola/hAwb0CcE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45222.75</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/zeleznicar-pancevo-imt-novi-beograd/tGq0uBLl/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,98 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/zeleznicar-pancevo-imt-novi-beograd/tGq0uBLl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45224.58333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>17/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>17/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>17/08/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>25/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-partizan/l0enQa49/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,63 +581,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29/07/2023 18:47</t>
+          <t>29/07/2023 18:45</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="P2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>29/07/2023 18:45</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>3.85</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>29/07/2023 18:47</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>4.3</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>4.06</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>29/07/2023 18:47</t>
+          <t>29/07/2023 18:45</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnicki-nis/xSUwaN5A/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-imt-novi-beograd/nwxR1PLi/</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,63 +673,63 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-imt-novi-beograd/nwxR1PLi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnicki-nis/xSUwaN5A/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>07/10/2023 04:43</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:29</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 17:29</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.71</v>
+        <v>4.12</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>6.3</v>
+        <v>5.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,742 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-partizan/l0enQa49/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45226.75</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-napredak/l0BkjSZ6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnik-surdulica-zeleznicar-pancevo/UelxEVRD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-mladost-lucani/tzCoi8K0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-vojvodina/lxX6bjSQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-fk-vozdovac/KKNxgUkl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45228.79166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-novi-pazar/6HJYgAzr/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,98 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-novi-pazar/6HJYgAzr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45231.79166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>01/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-tsc-backa-topola/jRrWtqoI/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-zeleznicar-pancevo/rahtDksK/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 17:29</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.71</v>
+        <v>4.12</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>6.3</v>
+        <v>5.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>07/10/2023 04:43</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q78" t="inlineStr">
+      <c r="T78" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:29</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,98 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-zeleznicar-pancevo/rahtDksK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45235.64583333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:51</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:51</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-tsc-backa-topola/OIPX25JC/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9473,6 +9473,98 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45236.625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>06/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>06/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>06/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-partizan/tfzT3o46/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>3</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,282 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-partizan/tfzT3o46/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45236.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-radnicki-1923/zcXK57Zg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45236.77083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-imt-novi-beograd/vVwC7T4s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-javor/d6YG6mKm/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -9838,6 +9838,98 @@
       <c r="V102" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-javor/d6YG6mKm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45240.70833333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-novi-pazar/UFGNPSQP/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9933,6 +9933,98 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-fk-vozdovac/zcgjLnZt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,282 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-fk-vozdovac/zcgjLnZt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnik-surdulica-napredak/MDe2IpJa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:08</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/zeleznicar-pancevo-crvena-zvezda/lzSbH4Y5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-mladost-lucani/rNdbJQ3g/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,282 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-mladost-lucani/rNdbJQ3g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:33</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:34</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-spartak-subotica/l0cfK6lm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-cukaricki/jPHJQ8BJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45242.8125</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:25</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-vojvodina/29Oy2PYI/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10577,6 +10577,98 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45252.66666666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-cukaricki/plrzt30O/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.05</v>
+        <v>1.05</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.18</v>
+        <v>5.36</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.11</v>
+        <v>13.81</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 19:07</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.9</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.83</v>
+        <v>46.56</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 19:07</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-zeleznicar-pancevo/6savvMTp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-vojvodina/SIG0YBRm/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.05</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.36</v>
+        <v>3.18</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>13.81</v>
+        <v>3.11</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 19:07</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>8.210000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>46.56</v>
+        <v>3.83</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 19:07</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-vojvodina/SIG0YBRm/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-zeleznicar-pancevo/6savvMTp/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,98 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-cukaricki/plrzt30O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45254.70833333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-spartak-subotica/xd8gwneP/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.05</v>
+        <v>2.05</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.36</v>
+        <v>3.18</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>13.81</v>
+        <v>3.11</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30/07/2023 19:07</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.210000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>29/07/2023 08:12</t>
+          <t>29/07/2023 14:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>46.56</v>
+        <v>3.83</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>30/07/2023 19:07</t>
+          <t>30/07/2023 18:46</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-vojvodina/SIG0YBRm/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-zeleznicar-pancevo/6savvMTp/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>1.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.18</v>
+        <v>5.36</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.11</v>
+        <v>13.81</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 19:07</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.9</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>29/07/2023 14:42</t>
+          <t>29/07/2023 08:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.83</v>
+        <v>46.56</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 18:46</t>
+          <t>30/07/2023 19:07</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-zeleznicar-pancevo/6savvMTp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-vojvodina/SIG0YBRm/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.65</v>
+        <v>4.58</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.88</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 19:20</t>
+          <t>20/08/2023 19:29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>4.58</v>
+        <v>1.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.91</v>
+        <v>3.88</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>20/08/2023 19:29</t>
+          <t>20/08/2023 19:20</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-tsc-backa-topola/23ajPJJF/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-mladost-lucani/GGOZGeRe/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>11.81</v>
+        <v>2.93</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>17.5</v>
+        <v>3.07</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 19:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>18.16</v>
+        <v>2.62</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>46.82</v>
+        <v>2.55</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.93</v>
+        <v>11.81</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.07</v>
+        <v>17.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 19:05</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.62</v>
+        <v>18.16</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.55</v>
+        <v>46.82</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,558 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-spartak-subotica/xd8gwneP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnik-surdulica-mladost-lucani/ziUAE2IO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-crvena-zvezda/SQQ2GOmC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45255.77083333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-tsc-backa-topola/UgmYV3ma/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>4</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:31</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:31</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:31</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-novi-pazar/8vaPXPIn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-cukaricki/nVcTWqYh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/zeleznicar-pancevo-napredak/MmQ6Fr3I/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11313,6 +11313,98 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45257.66666666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-fk-vozdovac/v5fLY53t/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>07/10/2023 04:43</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:29</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 17:29</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.71</v>
+        <v>4.12</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>6.3</v>
+        <v>5.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -11402,6 +11402,190 @@
       <c r="V119" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/javor-fk-vozdovac/v5fLY53t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45261.6875</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>30/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>30/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>30/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-javor/Ui8EBZ1p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45261.77083333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-radnik-surdulica/Moe0Zxfi/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,63 +581,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>28/07/2023 16:12</t>
+          <t>28/07/2023 07:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.06</v>
+        <v>6</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>29/07/2023 18:45</t>
+          <t>29/07/2023 18:47</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-imt-novi-beograd/nwxR1PLi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnicki-nis/xSUwaN5A/</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,63 +673,63 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 18:47</t>
+          <t>29/07/2023 18:45</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="P3" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>29/07/2023 18:45</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>3.85</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>29/07/2023 18:47</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>4.3</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>28/07/2023 07:12</t>
+          <t>28/07/2023 16:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>4.06</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 18:47</t>
+          <t>29/07/2023 18:45</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnicki-nis/xSUwaN5A/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-imt-novi-beograd/nwxR1PLi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.63</v>
+        <v>5.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.74</v>
+        <v>3.63</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.359999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 17:29</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.71</v>
+        <v>4.12</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>6.3</v>
+        <v>5.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>07/10/2023 04:43</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q78" t="inlineStr">
+      <c r="T78" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>08/10/2023 17:29</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:29</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-fk-vozdovac/WMNM1JMp/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-spartak-subotica/ADMQ0wxi/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,282 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-radnik-surdulica/Moe0Zxfi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45262.79166666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>01/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>01/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>01/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-imt-novi-beograd/8r7IAgHj/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.97</v>
+        <v>4.01</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.38</v>
+        <v>7.24</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.01</v>
+        <v>2.97</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.71</v>
+        <v>3.24</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>7.24</v>
+        <v>3.38</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
         </is>
       </c>
     </row>
@@ -11862,6 +11862,1754 @@
       <c r="V124" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-imt-novi-beograd/8r7IAgHj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnicki-1923/EskpT1XH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/napredak-crvena-zvezda/IDl9XGO3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-nis/zijtUsIB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-tsc-backa-topola/zJQaNW0d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-mladost-lucani/4UnHVfgG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/zeleznicar-pancevo-spartak-subotica/rLoLUE8M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnik-surdulica-fk-vozdovac/QqyQTYNS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:30</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:30</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:30</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-cukaricki/dSReOCoj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-novi-pazar/25SiPhWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45271.66666666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-partizan/CzArnGwc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45271.77083333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>08/12/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-napredak/d4mDWzvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45275.66666666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>13/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>13/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>13/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>15/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-radnik-surdulica/4lF2shhS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45275.75</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>5</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>13/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-zeleznicar-pancevo/dt7UxC0q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-napredak/IeewyjVe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-vojvodina/jR8nozg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:33</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-crvena-zvezda/zX5YyWFk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-radnicki-1923/pl8jpf89/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45278.66666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>18/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-javor/rZQgqENF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45278.75</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-imt-novi-beograd/QcGbrYxM/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.05</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.74</v>
+        <v>3.63</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.359999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 19:25</t>
+          <t>27/08/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.63</v>
+        <v>5.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.82</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 19:29</t>
+          <t>27/08/2023 19:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/spartak-subotica-napredak/rNGLvaJ2/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-radnik-surdulica/Iu9Yyc3L/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.23</v>
+        <v>3.2</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>10.82</v>
+        <v>4.06</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mladost</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.06</v>
+        <v>10.82</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-mladost-lucani/25QqVon6/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-zeleznicar-pancevo/xOIdSqWO/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.01</v>
+        <v>2.97</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.71</v>
+        <v>3.24</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>7.24</v>
+        <v>3.38</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.97</v>
+        <v>4.01</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.38</v>
+        <v>7.24</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,98 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-imt-novi-beograd/QcGbrYxM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45280.54166666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Radnik</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>25/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>25/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>25/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-radnik-surdulica/4CHCgMUN/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,98 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-1923-radnik-surdulica/4CHCgMUN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45280.75</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>26/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>26/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>26/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-crvena-zvezda/WbJ4er0B/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>24.2</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.23</v>
+        <v>1.23</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.08</v>
+        <v>1.09</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 18:23</t>
+          <t>28/10/2023 18:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>8.15</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>24.2</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>9.529999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.23</v>
+        <v>4.23</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.09</v>
+        <v>5.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>28/10/2023 18:21</t>
+          <t>28/10/2023 18:23</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/imt-novi-beograd-crvena-zvezda/SjAgknkD/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-spartak-subotica/2qDshl5f/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,98 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-crvena-zvezda/WbJ4er0B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45281.625</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:36</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:36</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:36</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-spartak-subotica/dtRibpGh/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V146"/>
+  <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.21</v>
+        <v>1.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.12</v>
+        <v>4.58</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.16</v>
+        <v>4.35</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.11</v>
+        <v>7</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.53</v>
+        <v>6.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 18:54</t>
+          <t>12/08/2023 18:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.58</v>
+        <v>3.12</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>2.11</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.26</v>
+        <v>3.53</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 18:50</t>
+          <t>12/08/2023 18:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-radnicki-1923/vVDe3xcd/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-radnik-surdulica/WOOL9vKS/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Radnicki Nis</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.93</v>
+        <v>11.81</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.07</v>
+        <v>17.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 19:05</t>
+          <t>02/09/2023 17:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.62</v>
+        <v>18.16</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.55</v>
+        <v>46.82</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 09:45</t>
+          <t>02/09/2023 17:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>11.81</v>
+        <v>2.93</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>17.5</v>
+        <v>3.07</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:55</t>
+          <t>02/09/2023 19:05</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>18.16</v>
+        <v>2.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>46.82</v>
+        <v>2.55</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 17:53</t>
+          <t>02/09/2023 09:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/crvena-zvezda-novi-pazar/AkCzZTns/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-radnicki-nis/Of7GTYA1/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Radnik</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.34</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.63</v>
+        <v>3.13</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.609999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 17:51</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Radnik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.87</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.13</v>
+        <v>4.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.48</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-radnicki-nis/0GjCx957/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/vojvodina-radnik-surdulica/Ctudti6r/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Napredak</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.99</v>
+        <v>3.11</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,32 +13124,32 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.08</v>
+        <v>3.37</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
           <t>16/12/2023 13:58</t>
         </is>
       </c>
-      <c r="R138" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T138" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>16/12/2023 13:58</t>
-        </is>
-      </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-napredak/IeewyjVe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-vojvodina/jR8nozg3/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.11</v>
+        <v>2.99</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.37</v>
+        <v>3.08</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.32</v>
+        <v>3.24</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.45</v>
+        <v>3.18</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-vojvodina/jR8nozg3/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-napredak/IeewyjVe/</t>
         </is>
       </c>
     </row>
@@ -13886,6 +13886,190 @@
       <c r="V146" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/novi-pazar-spartak-subotica/dtRibpGh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45281.70833333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>25/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>25/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>25/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-zeleznicar-pancevo/QLI8f2FH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45281.79166666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Vozdovac</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>27/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>27/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>27/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-vojvodina/25ClaQ0n/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.97</v>
+        <v>4.01</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.38</v>
+        <v>7.24</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.01</v>
+        <v>2.97</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.71</v>
+        <v>3.24</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>7.24</v>
+        <v>3.38</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.11</v>
+        <v>2.99</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.37</v>
+        <v>3.08</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:58</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.32</v>
+        <v>3.24</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.45</v>
+        <v>3.18</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-vojvodina/jR8nozg3/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-napredak/IeewyjVe/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Napredak</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.99</v>
+        <v>3.11</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,32 +13216,32 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.08</v>
+        <v>3.37</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
           <t>16/12/2023 13:58</t>
         </is>
       </c>
-      <c r="R139" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T139" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>16/12/2023 13:58</t>
-        </is>
-      </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-napredak/IeewyjVe/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/radnicki-nis-vojvodina/jR8nozg3/</t>
         </is>
       </c>
     </row>
@@ -14070,6 +14070,98 @@
       <c r="V148" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/fk-vozdovac-vojvodina/25ClaQ0n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45282.58333333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>27/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>22/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>27/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>22/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>27/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>22/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-mladost-lucani/zXPec4Vb/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_super-liga_2023-2024.xlsx
+++ b/2023/serbia_super-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.01</v>
+        <v>2.97</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.71</v>
+        <v>3.24</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>7.24</v>
+        <v>3.38</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:03</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.97</v>
+        <v>4.01</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.38</v>
+        <v>7.24</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>02/12/2023 15:03</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/super-liga/mladost-lucani-zeleznicar-pancevo/zka4Yd9c/</t>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/partizan-vojvodina/tUjxVN25/</t>
         </is>
       </c>
     </row>
@@ -14162,6 +14162,190 @@
       <c r="V149" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/super-liga/cukaricki-mladost-lucani/zXPec4Vb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45282.66666666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Javor</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>26/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>26/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>26/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>22/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/javor-imt-novi-beograd/MmCHhtpU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>super-liga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45282.70833333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:45</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>22/12/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/super-liga/tsc-backa-topola-napredak/IeF0dOp5/</t>
         </is>
       </c>
     </row>
